--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1877,28 +1877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>233.4042812600627</v>
+        <v>270.0764239556717</v>
       </c>
       <c r="AB2" t="n">
-        <v>319.3540346900272</v>
+        <v>369.5304781870624</v>
       </c>
       <c r="AC2" t="n">
-        <v>288.8753338355086</v>
+        <v>334.2630079881719</v>
       </c>
       <c r="AD2" t="n">
-        <v>233404.2812600627</v>
+        <v>270076.4239556717</v>
       </c>
       <c r="AE2" t="n">
-        <v>319354.0346900272</v>
+        <v>369530.4781870624</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.307395636081811e-06</v>
+        <v>4.269286036222959e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.585648148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>288875.3338355086</v>
+        <v>334263.0079881719</v>
       </c>
     </row>
     <row r="3">
@@ -1983,28 +1983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.249116620243</v>
+        <v>178.7505776067054</v>
       </c>
       <c r="AB3" t="n">
-        <v>194.6315169478466</v>
+        <v>244.5744262003067</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.0561581374489</v>
+        <v>221.2325862261835</v>
       </c>
       <c r="AD3" t="n">
-        <v>142249.116620243</v>
+        <v>178750.5776067054</v>
       </c>
       <c r="AE3" t="n">
-        <v>194631.5169478466</v>
+        <v>244574.4262003067</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.179831195580867e-06</v>
+        <v>5.883520237514317e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.780092592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>176056.1581374489</v>
+        <v>221232.5862261835</v>
       </c>
     </row>
     <row r="4">
@@ -2089,28 +2089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.4437979849127</v>
+        <v>151.7497478662481</v>
       </c>
       <c r="AB4" t="n">
-        <v>174.3742268264376</v>
+        <v>207.6306997568935</v>
       </c>
       <c r="AC4" t="n">
-        <v>157.7321953539355</v>
+        <v>187.8147171836721</v>
       </c>
       <c r="AD4" t="n">
-        <v>127443.7979849127</v>
+        <v>151749.7478662481</v>
       </c>
       <c r="AE4" t="n">
-        <v>174374.2268264376</v>
+        <v>207630.6997568935</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.441530352394243e-06</v>
+        <v>6.367732194234449e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.41550925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>157732.1953539355</v>
+        <v>187814.7171836721</v>
       </c>
     </row>
     <row r="5">
@@ -2195,28 +2195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>127.8047728075658</v>
+        <v>152.1107226889013</v>
       </c>
       <c r="AB5" t="n">
-        <v>174.8681285038767</v>
+        <v>208.1246014343326</v>
       </c>
       <c r="AC5" t="n">
-        <v>158.1789597484753</v>
+        <v>188.2614815782119</v>
       </c>
       <c r="AD5" t="n">
-        <v>127804.7728075658</v>
+        <v>152110.7226889013</v>
       </c>
       <c r="AE5" t="n">
-        <v>174868.1285038767</v>
+        <v>208124.6014343326</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.439954800577184e-06</v>
+        <v>6.36481701087069e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.418402777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>158178.9597484753</v>
+        <v>188261.4815782119</v>
       </c>
     </row>
   </sheetData>
@@ -2492,28 +2492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.3151778278782</v>
+        <v>211.6063142260294</v>
       </c>
       <c r="AB2" t="n">
-        <v>241.2422047806616</v>
+        <v>289.5290945356429</v>
       </c>
       <c r="AC2" t="n">
-        <v>218.2183873420261</v>
+        <v>261.8968441098827</v>
       </c>
       <c r="AD2" t="n">
-        <v>176315.1778278782</v>
+        <v>211606.3142260294</v>
       </c>
       <c r="AE2" t="n">
-        <v>241242.2047806616</v>
+        <v>289529.0945356428</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.738480650999099e-06</v>
+        <v>5.219966757091743e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.74074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>218218.387342026</v>
+        <v>261896.8441098827</v>
       </c>
     </row>
     <row r="3">
@@ -2598,28 +2598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.6553753227577</v>
+        <v>144.0975482421712</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.0860074560104</v>
+        <v>197.1606226400153</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.3304306041211</v>
+        <v>178.34388953198</v>
       </c>
       <c r="AD3" t="n">
-        <v>120655.3753227577</v>
+        <v>144097.5482421712</v>
       </c>
       <c r="AE3" t="n">
-        <v>165086.0074560104</v>
+        <v>197160.6226400153</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.526693671229135e-06</v>
+        <v>6.722422420456231e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.458912037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>149330.4306041211</v>
+        <v>178343.88953198</v>
       </c>
     </row>
     <row r="4">
@@ -2704,28 +2704,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.3746280982984</v>
+        <v>143.816801017712</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.7018767178121</v>
+        <v>196.776491901817</v>
       </c>
       <c r="AC4" t="n">
-        <v>148.9829607644455</v>
+        <v>177.9964196923043</v>
       </c>
       <c r="AD4" t="n">
-        <v>120374.6280982984</v>
+        <v>143816.801017712</v>
       </c>
       <c r="AE4" t="n">
-        <v>164701.8767178121</v>
+        <v>196776.491901817</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.543209852518763e-06</v>
+        <v>6.753904810976138e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.435763888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>148982.9607644455</v>
+        <v>177996.4196923043</v>
       </c>
     </row>
   </sheetData>
@@ -3001,28 +3001,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.951423109087</v>
+        <v>135.2564097280875</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.2309231109156</v>
+        <v>185.0637868815488</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.6566034316026</v>
+        <v>167.401558800282</v>
       </c>
       <c r="AD2" t="n">
-        <v>103951.423109087</v>
+        <v>135256.4097280875</v>
       </c>
       <c r="AE2" t="n">
-        <v>142230.9231109156</v>
+        <v>185063.7868815488</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.64203878425705e-06</v>
+        <v>7.756589478230954e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.817708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>128656.6034316026</v>
+        <v>167401.558800282</v>
       </c>
     </row>
   </sheetData>
@@ -3298,28 +3298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.7148515167072</v>
+        <v>144.5448988007362</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.8531883565054</v>
+        <v>197.7727074099574</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.2650945905995</v>
+        <v>178.8975577905453</v>
       </c>
       <c r="AD2" t="n">
-        <v>111714.8515167072</v>
+        <v>144544.8988007362</v>
       </c>
       <c r="AE2" t="n">
-        <v>152853.1883565054</v>
+        <v>197772.7074099574</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.582063737492808e-06</v>
+        <v>7.272827819960665e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.684606481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>138265.0945905995</v>
+        <v>178897.5577905453</v>
       </c>
     </row>
     <row r="3">
@@ -3404,28 +3404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.3513167546566</v>
+        <v>131.3802497016286</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.6192958232748</v>
+        <v>179.7602537292389</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.3398402219428</v>
+        <v>162.6041874084713</v>
       </c>
       <c r="AD3" t="n">
-        <v>109351.3167546566</v>
+        <v>131380.2497016286</v>
       </c>
       <c r="AE3" t="n">
-        <v>149619.2958232748</v>
+        <v>179760.2537292388</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.656183800580997e-06</v>
+        <v>7.423317173682307e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.58912037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>135339.8402219428</v>
+        <v>162604.1874084713</v>
       </c>
     </row>
   </sheetData>
@@ -3701,28 +3701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.9597979065821</v>
+        <v>132.0528640091199</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.1883348134041</v>
+        <v>180.6805542983969</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.568255140033</v>
+        <v>163.4366557829591</v>
       </c>
       <c r="AD2" t="n">
-        <v>111959.7979065821</v>
+        <v>132052.8640091199</v>
       </c>
       <c r="AE2" t="n">
-        <v>153188.3348134041</v>
+        <v>180680.5542983969</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.522526638008981e-06</v>
+        <v>7.843978788708176e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.170717592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>138568.255140033</v>
+        <v>163436.6557829592</v>
       </c>
     </row>
   </sheetData>
@@ -3998,28 +3998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.9131643025144</v>
+        <v>234.251403903738</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.7428374254169</v>
+        <v>320.5131052635166</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.3350999589363</v>
+        <v>289.9237843402302</v>
       </c>
       <c r="AD2" t="n">
-        <v>186913.1643025145</v>
+        <v>234251.403903738</v>
       </c>
       <c r="AE2" t="n">
-        <v>255742.8374254169</v>
+        <v>320513.1052635166</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.619443075459809e-06</v>
+        <v>4.952747799105053e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.946180555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>231335.0999589363</v>
+        <v>289923.7843402302</v>
       </c>
     </row>
     <row r="3">
@@ -4104,28 +4104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.2375782451893</v>
+        <v>149.0773797549443</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.355579647004</v>
+        <v>203.9742478104491</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.0016436246081</v>
+        <v>184.5072318791327</v>
       </c>
       <c r="AD3" t="n">
-        <v>125237.5782451893</v>
+        <v>149077.3797549443</v>
       </c>
       <c r="AE3" t="n">
-        <v>171355.579647004</v>
+        <v>203974.2478104491</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.446933170766007e-06</v>
+        <v>6.517336007455253e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.519675925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>155001.6436246081</v>
+        <v>184507.2318791327</v>
       </c>
     </row>
     <row r="4">
@@ -4210,28 +4210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>121.6289263540588</v>
+        <v>145.2981356632216</v>
       </c>
       <c r="AB4" t="n">
-        <v>166.4180629270762</v>
+        <v>198.8033193156745</v>
       </c>
       <c r="AC4" t="n">
-        <v>150.5353565705805</v>
+        <v>179.829809542454</v>
       </c>
       <c r="AD4" t="n">
-        <v>121628.9263540588</v>
+        <v>145298.1356632216</v>
       </c>
       <c r="AE4" t="n">
-        <v>166418.0629270762</v>
+        <v>198803.3193156745</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.527426221223601e-06</v>
+        <v>6.669529342837097e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.41550925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>150535.3565705805</v>
+        <v>179829.809542454</v>
       </c>
     </row>
   </sheetData>
@@ -4507,28 +4507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.8666905706043</v>
+        <v>140.0948653244081</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.6926971318279</v>
+        <v>191.683975286027</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.2153590196453</v>
+        <v>173.3899257149317</v>
       </c>
       <c r="AD2" t="n">
-        <v>110866.6905706043</v>
+        <v>140094.8653244081</v>
       </c>
       <c r="AE2" t="n">
-        <v>151692.6971318279</v>
+        <v>191683.975286027</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.409715565955713e-06</v>
+        <v>7.817000527276566e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.46875</v>
       </c>
       <c r="AH2" t="n">
-        <v>137215.3590196453</v>
+        <v>173389.9257149317</v>
       </c>
     </row>
   </sheetData>
@@ -4804,28 +4804,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.8591885805092</v>
+        <v>170.6498594223739</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.3074649027862</v>
+        <v>233.4906662020461</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.9995243928321</v>
+        <v>211.2066447259984</v>
       </c>
       <c r="AD2" t="n">
-        <v>147859.1885805092</v>
+        <v>170649.8594223739</v>
       </c>
       <c r="AE2" t="n">
-        <v>202307.4649027862</v>
+        <v>233490.6662020461</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.129744942416603e-06</v>
+        <v>6.134256834267434e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.17650462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>182999.5243928321</v>
+        <v>211206.6447259985</v>
       </c>
     </row>
     <row r="3">
@@ -4910,28 +4910,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.7706707105254</v>
+        <v>137.4760006978186</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.0342949907136</v>
+        <v>188.1007291677758</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.0471622758602</v>
+        <v>170.1486595770877</v>
       </c>
       <c r="AD3" t="n">
-        <v>114770.6707105254</v>
+        <v>137476.0006978186</v>
       </c>
       <c r="AE3" t="n">
-        <v>157034.2949907136</v>
+        <v>188100.7291677758</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.602800360007866e-06</v>
+        <v>7.061438915151575e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.496527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>142047.1622758602</v>
+        <v>170148.6595770877</v>
       </c>
     </row>
   </sheetData>
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.830826765856</v>
+        <v>201.7684585638692</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.265297237571</v>
+        <v>276.0685064031214</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.4799776416398</v>
+        <v>249.7209156166708</v>
       </c>
       <c r="AD2" t="n">
-        <v>166830.826765856</v>
+        <v>201768.4585638692</v>
       </c>
       <c r="AE2" t="n">
-        <v>228265.297237571</v>
+        <v>276068.5064031215</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.85580975830418e-06</v>
+        <v>5.490874221720578e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.555555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>206479.9776416398</v>
+        <v>249720.9156166708</v>
       </c>
     </row>
     <row r="3">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.803517375817</v>
+        <v>141.0100205618053</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.1839695979152</v>
+        <v>192.9361310556329</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.8007977626567</v>
+        <v>174.5225774952985</v>
       </c>
       <c r="AD3" t="n">
-        <v>117803.517375817</v>
+        <v>141010.0205618053</v>
       </c>
       <c r="AE3" t="n">
-        <v>161183.9695979152</v>
+        <v>192936.1310556329</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.573573966234405e-06</v>
+        <v>6.870921675910269e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.441550925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>145800.7977626567</v>
+        <v>174522.5774952985</v>
       </c>
     </row>
     <row r="4">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.273800742974</v>
+        <v>141.4803039289623</v>
       </c>
       <c r="AB4" t="n">
-        <v>161.827432048297</v>
+        <v>193.5795935060147</v>
       </c>
       <c r="AC4" t="n">
-        <v>146.3828490598795</v>
+        <v>175.1046287925212</v>
       </c>
       <c r="AD4" t="n">
-        <v>118273.800742974</v>
+        <v>141480.3039289623</v>
       </c>
       <c r="AE4" t="n">
-        <v>161827.432048297</v>
+        <v>193579.5935060147</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.570502613315929e-06</v>
+        <v>6.865016376190347e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>146382.8490598795</v>
+        <v>175104.6287925212</v>
       </c>
     </row>
   </sheetData>
@@ -5716,28 +5716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.430168227648</v>
+        <v>257.6234831997356</v>
       </c>
       <c r="AB2" t="n">
-        <v>302.9705249785015</v>
+        <v>352.4918152596514</v>
       </c>
       <c r="AC2" t="n">
-        <v>274.0554432964453</v>
+        <v>318.8504911367455</v>
       </c>
       <c r="AD2" t="n">
-        <v>221430.168227648</v>
+        <v>257623.4831997356</v>
       </c>
       <c r="AE2" t="n">
-        <v>302970.5249785015</v>
+        <v>352491.8152596514</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.405142504849133e-06</v>
+        <v>4.480598065075165e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.36863425925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>274055.4432964453</v>
+        <v>318850.4911367455</v>
       </c>
     </row>
     <row r="3">
@@ -5822,28 +5822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.0050251524733</v>
+        <v>172.1982506160098</v>
       </c>
       <c r="AB3" t="n">
-        <v>186.0880755317744</v>
+        <v>235.609243343376</v>
       </c>
       <c r="AC3" t="n">
-        <v>168.3280907793286</v>
+        <v>213.1230278384022</v>
       </c>
       <c r="AD3" t="n">
-        <v>136005.0251524733</v>
+        <v>172198.2506160098</v>
       </c>
       <c r="AE3" t="n">
-        <v>186088.0755317744</v>
+        <v>235609.243343376</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.27401763816828e-06</v>
+        <v>6.099246537376766e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.678819444444446</v>
       </c>
       <c r="AH3" t="n">
-        <v>168328.0907793286</v>
+        <v>213123.0278384022</v>
       </c>
     </row>
     <row r="4">
@@ -5928,28 +5928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>125.4159631348862</v>
+        <v>149.5164226676044</v>
       </c>
       <c r="AB4" t="n">
-        <v>171.5996537228731</v>
+        <v>204.5749656927567</v>
       </c>
       <c r="AC4" t="n">
-        <v>155.2224236132365</v>
+        <v>185.0506180898659</v>
       </c>
       <c r="AD4" t="n">
-        <v>125415.9631348862</v>
+        <v>149516.4226676044</v>
       </c>
       <c r="AE4" t="n">
-        <v>171599.6537228731</v>
+        <v>204574.9656927567</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.470206710493922e-06</v>
+        <v>6.464731898879826e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.41550925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>155222.4236132365</v>
+        <v>185050.6180898659</v>
       </c>
     </row>
   </sheetData>
@@ -6225,28 +6225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.6555783741902</v>
+        <v>152.9316879869452</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.7180411630527</v>
+        <v>209.2478823735485</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.0930210942101</v>
+        <v>189.2775581611242</v>
       </c>
       <c r="AD2" t="n">
-        <v>119655.5783741902</v>
+        <v>152931.6879869452</v>
       </c>
       <c r="AE2" t="n">
-        <v>163718.0411630527</v>
+        <v>209247.8823735485</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.421888844851804e-06</v>
+        <v>6.859167138487489e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.843749999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>148093.0210942101</v>
+        <v>189277.5581611242</v>
       </c>
     </row>
     <row r="3">
@@ -6331,28 +6331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.9415984474069</v>
+        <v>133.2679062801963</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.7951893935714</v>
+        <v>182.3430287375646</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.3080695637768</v>
+        <v>164.9404659949508</v>
       </c>
       <c r="AD3" t="n">
-        <v>110941.5984474069</v>
+        <v>133267.9062801963</v>
       </c>
       <c r="AE3" t="n">
-        <v>151795.1893935714</v>
+        <v>182343.0287375646</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.648854074263973e-06</v>
+        <v>7.314118340513061e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.542824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>137308.0695637768</v>
+        <v>164940.4659949508</v>
       </c>
     </row>
   </sheetData>
@@ -6628,28 +6628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.8547439615803</v>
+        <v>137.7051501276244</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.8351306698855</v>
+        <v>188.4142615269954</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.0122690761735</v>
+        <v>170.4322688479889</v>
       </c>
       <c r="AD2" t="n">
-        <v>105854.7439615803</v>
+        <v>137705.1501276244</v>
       </c>
       <c r="AE2" t="n">
-        <v>144835.1306698855</v>
+        <v>188414.2615269954</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.652289651798833e-06</v>
+        <v>7.64081835815003e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.72511574074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>131012.2690761735</v>
+        <v>170432.2688479889</v>
       </c>
     </row>
   </sheetData>
@@ -10994,28 +10994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.752624744594</v>
+        <v>133.4634394987039</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.590674301366</v>
+        <v>182.6105659134435</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.1728976663321</v>
+        <v>165.1824697982546</v>
       </c>
       <c r="AD2" t="n">
-        <v>102752.624744594</v>
+        <v>133463.4394987039</v>
       </c>
       <c r="AE2" t="n">
-        <v>140590.674301366</v>
+        <v>182610.5659134435</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.599898632915836e-06</v>
+        <v>7.825660414063782e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.959490740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>127172.8976663321</v>
+        <v>165182.4697982546</v>
       </c>
     </row>
   </sheetData>
@@ -11291,28 +11291,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.5681675152702</v>
+        <v>149.020048192371</v>
       </c>
       <c r="AB2" t="n">
-        <v>164.9666858864692</v>
+        <v>203.8958042372462</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.222496917708</v>
+        <v>184.4362748504601</v>
       </c>
       <c r="AD2" t="n">
-        <v>120568.1675152702</v>
+        <v>149020.0481923709</v>
       </c>
       <c r="AE2" t="n">
-        <v>164966.6858864692</v>
+        <v>203895.8042372463</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.189830273824434e-06</v>
+        <v>7.587097315353583e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.006944444444446</v>
       </c>
       <c r="AH2" t="n">
-        <v>149222.496917708</v>
+        <v>184436.2748504601</v>
       </c>
     </row>
   </sheetData>
@@ -11588,28 +11588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.3274026722609</v>
+        <v>191.7265793751289</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.2622931312397</v>
+        <v>262.3287642806506</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.7179619973817</v>
+        <v>237.2924751985149</v>
       </c>
       <c r="AD2" t="n">
-        <v>157327.4026722609</v>
+        <v>191726.5793751289</v>
       </c>
       <c r="AE2" t="n">
-        <v>215262.2931312397</v>
+        <v>262328.7642806506</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.985743728720984e-06</v>
+        <v>5.794069175779213e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.367476851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>194717.9619973817</v>
+        <v>237292.4751985149</v>
       </c>
     </row>
     <row r="3">
@@ -11694,28 +11694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.1988153179652</v>
+        <v>139.1600765742515</v>
       </c>
       <c r="AB3" t="n">
-        <v>158.9883454479051</v>
+        <v>190.4049560780944</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.8147208999451</v>
+        <v>172.232974305089</v>
       </c>
       <c r="AD3" t="n">
-        <v>116198.8153179652</v>
+        <v>139160.0765742515</v>
       </c>
       <c r="AE3" t="n">
-        <v>158988.3454479051</v>
+        <v>190404.9560780944</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.594292375382989e-06</v>
+        <v>6.97500541008118e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.458912037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>143814.7208999451</v>
+        <v>172232.974305089</v>
       </c>
     </row>
   </sheetData>
@@ -11991,28 +11991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.9432725779449</v>
+        <v>245.8185133442973</v>
       </c>
       <c r="AB2" t="n">
-        <v>287.2536475845153</v>
+        <v>336.3397347049349</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.8385626221602</v>
+        <v>304.2399424805786</v>
       </c>
       <c r="AD2" t="n">
-        <v>209943.2725779449</v>
+        <v>245818.5133442973</v>
       </c>
       <c r="AE2" t="n">
-        <v>287253.6475845153</v>
+        <v>336339.7347049349</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.508578723643966e-06</v>
+        <v>4.707077623493093e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.157407407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>259838.5626221602</v>
+        <v>304239.9424805786</v>
       </c>
     </row>
     <row r="3">
@@ -12097,28 +12097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>131.3474204089086</v>
+        <v>155.4064226717288</v>
       </c>
       <c r="AB3" t="n">
-        <v>179.7153352426132</v>
+        <v>212.6339235468567</v>
       </c>
       <c r="AC3" t="n">
-        <v>162.5635558791656</v>
+        <v>192.3404403171915</v>
       </c>
       <c r="AD3" t="n">
-        <v>131347.4204089086</v>
+        <v>155406.4226717289</v>
       </c>
       <c r="AE3" t="n">
-        <v>179715.3352426132</v>
+        <v>212633.9235468567</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.345020731463801e-06</v>
+        <v>6.27657090717972e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.618055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>162563.5558791657</v>
+        <v>192340.4403171915</v>
       </c>
     </row>
     <row r="4">
@@ -12203,28 +12203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>123.3364771734629</v>
+        <v>147.2248872356909</v>
       </c>
       <c r="AB4" t="n">
-        <v>168.7544092900092</v>
+        <v>201.4395858194059</v>
       </c>
       <c r="AC4" t="n">
-        <v>152.6487253157186</v>
+        <v>182.2144744710934</v>
       </c>
       <c r="AD4" t="n">
-        <v>123336.4771734629</v>
+        <v>147224.8872356909</v>
       </c>
       <c r="AE4" t="n">
-        <v>168754.4092900092</v>
+        <v>201439.5858194059</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.504302349289862e-06</v>
+        <v>6.575445697130001e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.406828703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>152648.7253157186</v>
+        <v>182214.4744710934</v>
       </c>
     </row>
   </sheetData>
@@ -12500,28 +12500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.5766736711186</v>
+        <v>160.0573420693694</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.3972537867946</v>
+        <v>218.9975166507881</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.0849544780784</v>
+        <v>198.0967010266447</v>
       </c>
       <c r="AD2" t="n">
-        <v>132576.6736711186</v>
+        <v>160057.3420693694</v>
       </c>
       <c r="AE2" t="n">
-        <v>181397.2537867946</v>
+        <v>218997.5166507881</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.749431409448849e-06</v>
+        <v>6.87611930196956e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.219328703703703</v>
       </c>
       <c r="AH2" t="n">
-        <v>164084.9544780784</v>
+        <v>198096.7010266447</v>
       </c>
     </row>
   </sheetData>
@@ -12797,28 +12797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.7462194699503</v>
+        <v>140.102719538407</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.4231309064461</v>
+        <v>191.6947217681237</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.3532742024387</v>
+        <v>173.3996465678599</v>
       </c>
       <c r="AD2" t="n">
-        <v>107746.2194699503</v>
+        <v>140102.719538407</v>
       </c>
       <c r="AE2" t="n">
-        <v>147423.1309064461</v>
+        <v>191694.7217681237</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.646907877610744e-06</v>
+        <v>7.510017065648282e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.664351851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>133353.2742024387</v>
+        <v>173399.6465678599</v>
       </c>
     </row>
     <row r="3">
@@ -12903,28 +12903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.6538937880327</v>
+        <v>140.0103938564894</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.296806835325</v>
+        <v>191.5683976970026</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.2390063233684</v>
+        <v>173.2853786887896</v>
       </c>
       <c r="AD3" t="n">
-        <v>107653.8937880327</v>
+        <v>140010.3938564894</v>
       </c>
       <c r="AE3" t="n">
-        <v>147296.806835325</v>
+        <v>191568.3976970026</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.660605460192889e-06</v>
+        <v>7.538224270875913e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.64699074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>133239.0063233684</v>
+        <v>173285.3786887896</v>
       </c>
     </row>
   </sheetData>
@@ -13200,28 +13200,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.4139199898697</v>
+        <v>161.9366241559676</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.7522758381241</v>
+        <v>221.5688333097445</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.547146354688</v>
+        <v>200.4226148325368</v>
       </c>
       <c r="AD2" t="n">
-        <v>139413.9199898697</v>
+        <v>161936.6241559676</v>
       </c>
       <c r="AE2" t="n">
-        <v>190752.2758381241</v>
+        <v>221568.8333097445</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.269790932493601e-06</v>
+        <v>6.478057844307879e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.008680555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>172547.146354688</v>
+        <v>200422.6148325368</v>
       </c>
     </row>
     <row r="3">
@@ -13306,28 +13306,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.8479359607749</v>
+        <v>135.4558914728933</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.4035244810356</v>
+        <v>185.3367266053053</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.6674688113155</v>
+        <v>167.6484495398766</v>
       </c>
       <c r="AD3" t="n">
-        <v>112847.9359607749</v>
+        <v>135455.8914728933</v>
       </c>
       <c r="AE3" t="n">
-        <v>154403.5244810357</v>
+        <v>185336.7266053053</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.628692512949581e-06</v>
+        <v>7.189107953201011e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.513888888888888</v>
       </c>
       <c r="AH3" t="n">
-        <v>139667.4688113155</v>
+        <v>167648.4495398766</v>
       </c>
     </row>
   </sheetData>
